--- a/src/INSERT/repeatphoto/INSERT_swissTerra_locations.xlsx
+++ b/src/INSERT/repeatphoto/INSERT_swissTerra_locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hodel\Documents\GLAMOS\GLAMOS_GitHub\database\src\INSERT\repeatphoto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67002DCC-1C29-4703-875A-BB05E0C6122E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99045760-67EE-4ABE-A495-89BD4288FF9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13425" xr2:uid="{DF3DFB15-B7B9-4840-9F10-91E1472D4859}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="335">
   <si>
     <t>pk</t>
   </si>
@@ -966,6 +966,84 @@
   </si>
   <si>
     <t>y_lv03</t>
+  </si>
+  <si>
+    <t>0277_Grieshorn-unten_L</t>
+  </si>
+  <si>
+    <t>0277_Grieshorn-unten_R</t>
+  </si>
+  <si>
+    <t>1666_Längisgrat_R</t>
+  </si>
+  <si>
+    <t>5438_Piz-Triazza_L</t>
+  </si>
+  <si>
+    <t>5438_Piz-Triazza_R</t>
+  </si>
+  <si>
+    <t>5440_Piz-Lischanna-Süd_L</t>
+  </si>
+  <si>
+    <t>5537_P-Curtinatsch-II_L</t>
+  </si>
+  <si>
+    <t>5538_P-d-Imez-I_R</t>
+  </si>
+  <si>
+    <t>6886_P-Batzetto_L</t>
+  </si>
+  <si>
+    <t>6886_P-Batzetto_R</t>
+  </si>
+  <si>
+    <t>4729_Mittler-Selbsanft-Süd_R</t>
+  </si>
+  <si>
+    <t>4729_Mittler-Selbsanft-Süd_L</t>
+  </si>
+  <si>
+    <t>6880_P-Grande_L</t>
+  </si>
+  <si>
+    <t>6880_P-Grande_R</t>
+  </si>
+  <si>
+    <t>5989_Piz-Calderas_L</t>
+  </si>
+  <si>
+    <t>5989_Piz-Calderas_R</t>
+  </si>
+  <si>
+    <t>4711_Kleine-Tödi-Ost_R</t>
+  </si>
+  <si>
+    <t>4711_Kleine-Tödi-Ost_L</t>
+  </si>
+  <si>
+    <t>4227_Pte-Lirerose_L</t>
+  </si>
+  <si>
+    <t>4227_Pte-Lirerose_R</t>
+  </si>
+  <si>
+    <t>5938_Bleis-Martscha_R</t>
+  </si>
+  <si>
+    <t>5938_Bleis-Martscha_L</t>
+  </si>
+  <si>
+    <t>4367_Piz-Casnile-S-O_R</t>
+  </si>
+  <si>
+    <t>1463_In-Gummen_R</t>
+  </si>
+  <si>
+    <t>0230-B_Mühlestein-Ost-B-C_L</t>
+  </si>
+  <si>
+    <t>0230-B_Mühlestein-Ost-B-C_R</t>
   </si>
 </sst>
 </file>
@@ -1342,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B45DAA1-3C16-46C9-8404-33800933CA1F}">
-  <dimension ref="A1:K150"/>
+  <dimension ref="A1:K178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I138" sqref="I138"/>
+    <sheetView tabSelected="1" topLeftCell="B148" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6308,6 +6386,370 @@
         <v>INSERT INTO repeatphoto.location(pk, name, x_lv95, y_lv95, z_ln02, accuracy, programm) VALUES ('49a48bc0-fe5a-4329-a563-8b24b7c78386','7049_Bergsee-West-Grosse-Basis_R',2679209.46,1167799.69,2367,10,'swissTerra');</v>
       </c>
     </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B153" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C153">
+        <v>672267</v>
+      </c>
+      <c r="D153">
+        <v>144819</v>
+      </c>
+      <c r="G153">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B154" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C154">
+        <v>672337</v>
+      </c>
+      <c r="D154">
+        <v>144969</v>
+      </c>
+      <c r="G154">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B155" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C155">
+        <v>672567</v>
+      </c>
+      <c r="D155">
+        <v>157175</v>
+      </c>
+      <c r="G155">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B156" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C156">
+        <v>822894</v>
+      </c>
+      <c r="D156">
+        <v>183848</v>
+      </c>
+      <c r="G156">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>313</v>
+      </c>
+      <c r="C157">
+        <v>822849</v>
+      </c>
+      <c r="D157">
+        <v>183926</v>
+      </c>
+      <c r="G157">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B158" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C158">
+        <v>822115</v>
+      </c>
+      <c r="D158">
+        <v>183451</v>
+      </c>
+      <c r="G158">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B159" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C159">
+        <v>823461</v>
+      </c>
+      <c r="D159">
+        <v>182889</v>
+      </c>
+      <c r="G159">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B160" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C160">
+        <v>824099</v>
+      </c>
+      <c r="D160">
+        <v>180954</v>
+      </c>
+      <c r="G160">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>317</v>
+      </c>
+      <c r="C161">
+        <v>771761</v>
+      </c>
+      <c r="D161">
+        <v>134158</v>
+      </c>
+      <c r="G161">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>318</v>
+      </c>
+      <c r="C162">
+        <v>771456</v>
+      </c>
+      <c r="D162">
+        <v>134121</v>
+      </c>
+      <c r="G162">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>320</v>
+      </c>
+      <c r="C163">
+        <v>717514</v>
+      </c>
+      <c r="D163">
+        <v>188613</v>
+      </c>
+      <c r="G163">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>319</v>
+      </c>
+      <c r="C164">
+        <v>717372</v>
+      </c>
+      <c r="D164">
+        <v>189228</v>
+      </c>
+      <c r="G164">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>321</v>
+      </c>
+      <c r="C165">
+        <v>767704</v>
+      </c>
+      <c r="D165">
+        <v>132459</v>
+      </c>
+      <c r="G165">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>322</v>
+      </c>
+      <c r="C166">
+        <v>767480</v>
+      </c>
+      <c r="D166">
+        <v>132588</v>
+      </c>
+      <c r="G166">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>323</v>
+      </c>
+      <c r="C167">
+        <v>773256</v>
+      </c>
+      <c r="D167">
+        <v>156372</v>
+      </c>
+      <c r="G167">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>324</v>
+      </c>
+      <c r="C168">
+        <v>773155</v>
+      </c>
+      <c r="D168">
+        <v>156337</v>
+      </c>
+      <c r="G168">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>326</v>
+      </c>
+      <c r="C169">
+        <v>711889</v>
+      </c>
+      <c r="D169">
+        <v>185654</v>
+      </c>
+      <c r="G169">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>325</v>
+      </c>
+      <c r="C170">
+        <v>712089</v>
+      </c>
+      <c r="D170">
+        <v>185711</v>
+      </c>
+      <c r="G170">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>327</v>
+      </c>
+      <c r="C171">
+        <v>595987</v>
+      </c>
+      <c r="D171">
+        <v>90082</v>
+      </c>
+      <c r="G171">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>328</v>
+      </c>
+      <c r="C172">
+        <v>595490</v>
+      </c>
+      <c r="D172">
+        <v>90457</v>
+      </c>
+      <c r="G172">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>330</v>
+      </c>
+      <c r="C173">
+        <v>774404</v>
+      </c>
+      <c r="D173">
+        <v>159538</v>
+      </c>
+      <c r="G173">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>329</v>
+      </c>
+      <c r="C174">
+        <v>774275</v>
+      </c>
+      <c r="D174">
+        <v>159729</v>
+      </c>
+      <c r="G174">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B175" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C175">
+        <v>773506</v>
+      </c>
+      <c r="D175">
+        <v>133990</v>
+      </c>
+      <c r="G175">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>332</v>
+      </c>
+      <c r="C176">
+        <v>660975</v>
+      </c>
+      <c r="D176">
+        <v>163366</v>
+      </c>
+      <c r="G176">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>333</v>
+      </c>
+      <c r="C177">
+        <v>677280</v>
+      </c>
+      <c r="D177">
+        <v>153921</v>
+      </c>
+      <c r="G177">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>334</v>
+      </c>
+      <c r="C178">
+        <v>677136</v>
+      </c>
+      <c r="D178">
+        <v>153797</v>
+      </c>
+      <c r="G178">
+        <v>2883</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
